--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_176__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_176__Reeval_Sobol_Modell_1.1.xlsx
@@ -6121,7 +6121,7 @@
                   <c:v>0.9339635968208313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.323534488677979</c:v>
+                  <c:v>3.32353663444519</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.9894231557846069</c:v>
@@ -6133,25 +6133,25 @@
                   <c:v>6.320335865020752</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.04031246528029442</c:v>
+                  <c:v>-0.0403079092502594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.0194149017334</c:v>
+                  <c:v>26.01941299438477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.90879058837891</c:v>
+                  <c:v>49.90879440307617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.56770706176758</c:v>
+                  <c:v>46.56770324707031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.3697509765625</c:v>
+                  <c:v>44.36975479125977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9365872740745544</c:v>
+                  <c:v>0.9365918636322021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.07634180784225464</c:v>
+                  <c:v>-0.07633952796459198</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-6.533738136291504</c:v>
@@ -6169,16 +6169,16 @@
                   <c:v>47.67369079589844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.327876567840576</c:v>
+                  <c:v>5.327874183654785</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52.10506439208984</c:v>
+                  <c:v>52.10506057739258</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>49.98013687133789</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.162537574768066</c:v>
+                  <c:v>4.162532806396484</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40.17169570922852</c:v>
@@ -6187,7 +6187,7 @@
                   <c:v>0.5117620229721069</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46.41385650634766</c:v>
+                  <c:v>46.41384887695312</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50.75186538696289</c:v>
@@ -6199,7 +6199,7 @@
                   <c:v>2.089672088623047</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.023783683776855</c:v>
+                  <c:v>4.023778915405273</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>41.35902786254883</c:v>
@@ -6208,7 +6208,7 @@
                   <c:v>50.37659072875977</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48.58243942260742</c:v>
+                  <c:v>48.58244323730469</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.081657409667969</c:v>
@@ -6220,10 +6220,10 @@
                   <c:v>38.38003540039062</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.6036908626556396</c:v>
+                  <c:v>-0.6036885976791382</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.124741792678833</c:v>
+                  <c:v>1.124739527702332</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.7954241037368774</c:v>
@@ -6235,16 +6235,16 @@
                   <c:v>52.70996856689453</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>57.79526519775391</c:v>
+                  <c:v>57.79527282714844</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.4038563668727875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.675876617431641</c:v>
+                  <c:v>6.675878047943115</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.2731993198394775</c:v>
+                  <c:v>-0.2731970250606537</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44.21957778930664</c:v>
@@ -6265,7 +6265,7 @@
                   <c:v>37.90694046020508</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47.15560531616211</c:v>
+                  <c:v>47.15559768676758</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0.7005775570869446</c:v>
@@ -6280,40 +6280,40 @@
                   <c:v>4.446913242340088</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.70244598388672</c:v>
+                  <c:v>47.70244216918945</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>47.50005722045898</c:v>
+                  <c:v>47.50006103515625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.045965194702148</c:v>
+                  <c:v>4.045958518981934</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.95578384399414</c:v>
+                  <c:v>10.95578861236572</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>50.1604118347168</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38.69207382202148</c:v>
+                  <c:v>38.69206619262695</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.715757369995117</c:v>
+                  <c:v>6.715758323669434</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>48.77253341674805</c:v>
+                  <c:v>48.77253723144531</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.1827658116817474</c:v>
+                  <c:v>-0.1827703714370728</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.86803436279297</c:v>
+                  <c:v>43.8680305480957</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>43.4411735534668</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.693403959274292</c:v>
+                  <c:v>-1.693399429321289</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0.778234601020813</c:v>
@@ -6322,22 +6322,22 @@
                   <c:v>0.5908505916595459</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>44.36434173583984</c:v>
+                  <c:v>44.36434555053711</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.6074178218841553</c:v>
+                  <c:v>0.6074223518371582</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>4.297708034515381</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.737545967102051</c:v>
+                  <c:v>1.737548232078552</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>50.56216812133789</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>34.42718505859375</c:v>
+                  <c:v>34.42719268798828</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>3.850484609603882</c:v>
@@ -6349,25 +6349,25 @@
                   <c:v>39.44621276855469</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.012876629829407</c:v>
+                  <c:v>1.012878894805908</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45.30294418334961</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.83253002166748</c:v>
+                  <c:v>9.832529067993164</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>52.7703742980957</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.45043957233429</c:v>
+                  <c:v>-1.450441837310791</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.59412157535553</c:v>
+                  <c:v>1.594117045402527</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.630707740783691</c:v>
+                  <c:v>6.630709171295166</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>49.91377639770508</c:v>
@@ -6376,43 +6376,43 @@
                   <c:v>38.37006759643555</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>32.18402862548828</c:v>
+                  <c:v>32.18402481079102</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9255250096321106</c:v>
+                  <c:v>0.9255295395851135</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>20.79534339904785</c:v>
+                  <c:v>20.79534721374512</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.5686599612236023</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.9827579855918884</c:v>
+                  <c:v>0.9827602505683899</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>49.51549911499023</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>50.90812683105469</c:v>
+                  <c:v>50.90811920166016</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>43.85559463500977</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.56537246704102</c:v>
+                  <c:v>10.56537342071533</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.799077987670898</c:v>
+                  <c:v>1.799082636833191</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>4.297708034515381</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>52.37553787231445</c:v>
+                  <c:v>52.37553405761719</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.266129970550537</c:v>
+                  <c:v>7.26612663269043</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>28.39815521240234</c:v>
@@ -6421,7 +6421,7 @@
                   <c:v>47.16555023193359</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>41.75078582763672</c:v>
+                  <c:v>41.75078964233398</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2.414530992507935</c:v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>3.323534488677979</v>
+        <v>3.32353663444519</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.04031246528029442</v>
+        <v>-0.0403079092502594</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.0194149017334</v>
+        <v>26.01941299438477</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>40.0699</v>
       </c>
       <c r="F9">
-        <v>49.90879058837891</v>
+        <v>49.90879440307617</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>46.56770706176758</v>
+        <v>46.56770324707031</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.3697509765625</v>
+        <v>44.36975479125977</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9365872740745544</v>
+        <v>0.9365918636322021</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.07634180784225464</v>
+        <v>-0.07633952796459198</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5.327876567840576</v>
+        <v>5.327874183654785</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>45.5233</v>
       </c>
       <c r="F20">
-        <v>52.10506439208984</v>
+        <v>52.10506057739258</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>4.162537574768066</v>
+        <v>4.162532806396484</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>45.2847</v>
       </c>
       <c r="F25">
-        <v>46.41385650634766</v>
+        <v>46.41384887695312</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4.023783683776855</v>
+        <v>4.023778915405273</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.7115</v>
       </c>
       <c r="F32">
-        <v>48.58243942260742</v>
+        <v>48.58244323730469</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.6036908626556396</v>
+        <v>-0.6036885976791382</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.124741792678833</v>
+        <v>1.124739527702332</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>57.79526519775391</v>
+        <v>57.79527282714844</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>6.675876617431641</v>
+        <v>6.675878047943115</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.2731993198394775</v>
+        <v>-0.2731970250606537</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>47.15560531616211</v>
+        <v>47.15559768676758</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>47.70244598388672</v>
+        <v>47.70244216918945</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>48.2681</v>
       </c>
       <c r="F57">
-        <v>47.50005722045898</v>
+        <v>47.50006103515625</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>4.045965194702148</v>
+        <v>4.045958518981934</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>10.95578384399414</v>
+        <v>10.95578861236572</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>38.69207382202148</v>
+        <v>38.69206619262695</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>6.715757369995117</v>
+        <v>6.715758323669434</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>48.77253341674805</v>
+        <v>48.77253723144531</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.1827658116817474</v>
+        <v>-0.1827703714370728</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>43.86803436279297</v>
+        <v>43.8680305480957</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.693403959274292</v>
+        <v>-1.693399429321289</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>44.36434173583984</v>
+        <v>44.36434555053711</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.6074178218841553</v>
+        <v>0.6074223518371582</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.737545967102051</v>
+        <v>1.737548232078552</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>34.42718505859375</v>
+        <v>34.42719268798828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.012876629829407</v>
+        <v>1.012878894805908</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>9.83253002166748</v>
+        <v>9.832529067993164</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-1.45043957233429</v>
+        <v>-1.450441837310791</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.59412157535553</v>
+        <v>1.594117045402527</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>6.630707740783691</v>
+        <v>6.630709171295166</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>32.18402862548828</v>
+        <v>32.18402481079102</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.9255250096321106</v>
+        <v>0.9255295395851135</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>20.79534339904785</v>
+        <v>20.79534721374512</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.9827579855918884</v>
+        <v>0.9827602505683899</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>50.90812683105469</v>
+        <v>50.90811920166016</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>10.56537246704102</v>
+        <v>10.56537342071533</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.799077987670898</v>
+        <v>1.799082636833191</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>52.37553787231445</v>
+        <v>52.37553405761719</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>7.266129970550537</v>
+        <v>7.26612663269043</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>41.75078582763672</v>
+        <v>41.75078964233398</v>
       </c>
     </row>
     <row r="104" spans="1:6">
